--- a/doc/画面遷移図_D3.xlsx
+++ b/doc/画面遷移図_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61200A6F-EE71-4D34-8CB4-DCD3041EE59F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827160A9-6466-4A02-A290-A070638DE2A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="370" yWindow="480" windowWidth="12410" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>

--- a/doc/画面遷移図_D3.xlsx
+++ b/doc/画面遷移図_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827160A9-6466-4A02-A290-A070638DE2A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CC8FE6-66CE-4F50-8F0A-EEC9DDD231C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="370" yWindow="480" windowWidth="12410" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="60" windowWidth="15210" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -2236,7 +2236,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/画面遷移図_D3.xlsx
+++ b/doc/画面遷移図_D3.xlsx
@@ -8,16 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CC8FE6-66CE-4F50-8F0A-EEC9DDD231C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3270186A-8D89-4FB8-A741-8BAE879AD929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="60" windowWidth="15210" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
     <sheet name="アイテム" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1389,15 +1400,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>99786</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1412,8 +1423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6223000" y="1415143"/>
-          <a:ext cx="6912429" cy="3302000"/>
+          <a:off x="6186714" y="1415143"/>
+          <a:ext cx="9769929" cy="3519714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1542,6 +1553,190 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>282123</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>227693</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E6F063-91F9-4DB8-93C4-5C3D0D9C6117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="1"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12483194" y="3648628"/>
+          <a:ext cx="553356" cy="728035"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>227693</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>115209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>240393</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="四角形: 角を丸くする 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6493D5AC-28ED-4CB0-B452-768FBD0C1C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13036550" y="3970566"/>
+          <a:ext cx="2443843" cy="812194"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投稿内容、返信内容を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示する画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>116116</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>227693</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C65E841-E298-4C8F-BD61-9D979B52B88A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="1"/>
+          <a:endCxn id="82" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8062687" y="4220028"/>
+          <a:ext cx="4973863" cy="156635"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2235,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/画面遷移図_D3.xlsx
+++ b/doc/画面遷移図_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3270186A-8D89-4FB8-A741-8BAE879AD929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D92C17-5A78-428D-AE1A-1A083B02FFA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20080" yWindow="10" windowWidth="17910" windowHeight="10270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -1463,16 +1463,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>508001</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>961572</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>484419</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>23290</xdr:rowOff>
+      <xdr:rowOff>23291</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1489,11 +1489,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="508001" y="2966357"/>
-          <a:ext cx="2969989" cy="3361576"/>
+          <a:off x="1905001" y="5234215"/>
+          <a:ext cx="1572989" cy="1093719"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100173"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -2430,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
